--- a/biology/Virologie/Herpesvirales/Herpesvirales.xlsx
+++ b/biology/Virologie/Herpesvirales/Herpesvirales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Herpesvirales sont un ordre de virus à ADNdb (groupe I), caractérisés par une morphologie commune constituée d'une capside icosaédrique enfermée dans une enveloppe lipidique contenant des glycoprotéines. Les infections courantes chez l'homme causées par les membres de cet ordre comprennent les boutons de fièvre, l'herpès génital, la varicelle, le zona et la mononucléose infectieuse. C'est le seul ordre de la classe Herviviricetes, elle-même seule classe de l'embranchement Peploviricota.
 </t>
@@ -511,9 +523,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La structure du virion consiste en un noyau d'ADN entouré d'une capside icosaédrique composée de 12 capsomères pentavalents et 150 hexavalents (T = 16). La capside a un diamètre d'environ 110 nanomètres et est intégrée dans une matrice protéique appelée tégument, qui à son tour est entourée d'une enveloppe lipidique contenant des glycoprotéines d'environ 200 nm de diamètre. Le génome de l'ADN est linéaire et à double brin, avec des tailles comprises entre 125 et 290 kpb[2]. Le génome contient des séquences réitérées terminales et internes, dont le nombre et la disposition varient selon les différentes sous-clades.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La structure du virion consiste en un noyau d'ADN entouré d'une capside icosaédrique composée de 12 capsomères pentavalents et 150 hexavalents (T = 16). La capside a un diamètre d'environ 110 nanomètres et est intégrée dans une matrice protéique appelée tégument, qui à son tour est entourée d'une enveloppe lipidique contenant des glycoprotéines d'environ 200 nm de diamètre. Le génome de l'ADN est linéaire et à double brin, avec des tailles comprises entre 125 et 290 kpb. Le génome contient des séquences réitérées terminales et internes, dont le nombre et la disposition varient selon les différentes sous-clades.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les herpèsvirus peuvent être très virulents chez certaines espèces.
-Toutes les espèces de cet ordre infectent uniquement des animaux. Les Malacoherpesviridae infectent les mollusques (ormeau et huîtres), les Alloherpesviridae infectent les anamniotes (grenouilles et poissons) et les Herpesviridae infectent les amniotes (reptiles, oiseaux et mammifères). Au sein de la famille Herpesviridae, les genres Iltovirus et Mardivirus, et le genre Scutavirus de la sous-famille Alphaherpesvirinae infectent respectivement les oiseaux et les reptiles. Tous les autres genres d'Herpesviridae n'infectent que les mammifères[3].
+Toutes les espèces de cet ordre infectent uniquement des animaux. Les Malacoherpesviridae infectent les mollusques (ormeau et huîtres), les Alloherpesviridae infectent les anamniotes (grenouilles et poissons) et les Herpesviridae infectent les amniotes (reptiles, oiseaux et mammifères). Au sein de la famille Herpesviridae, les genres Iltovirus et Mardivirus, et le genre Scutavirus de la sous-famille Alphaherpesvirinae infectent respectivement les oiseaux et les reptiles. Tous les autres genres d'Herpesviridae n'infectent que les mammifères.
 </t>
         </is>
       </c>
